--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1908.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBCFB8F-52EE-4D86-9D7A-804EF79DDA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4B6D2-1063-445E-BA59-4EB98BD9F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
@@ -814,7 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1288,7 +1290,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>1712.51</v>
+        <v>1712.5</v>
       </c>
       <c r="C9" s="2">
         <v>1707.6</v>
@@ -1298,7 +1300,7 @@
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>9.9999999997635314E-3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1330,7 +1332,7 @@
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="3"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="R9" s="4">
         <f t="shared" si="4"/>
@@ -4710,7 +4712,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>489.51</v>
+        <v>489.5</v>
       </c>
       <c r="C68" s="2">
         <v>396.5</v>
@@ -4720,7 +4722,7 @@
       </c>
       <c r="E68" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2">
@@ -4752,7 +4754,7 @@
       </c>
       <c r="Q68" s="4">
         <f t="shared" si="9"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="R68" s="4">
         <f t="shared" si="10"/>
@@ -6799,14 +6801,14 @@
         <v>100.4</v>
       </c>
       <c r="C104" s="2">
-        <v>101.41</v>
+        <v>101.4</v>
       </c>
       <c r="D104" s="2">
         <v>201.8</v>
       </c>
       <c r="E104" s="4">
         <f t="shared" si="6"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2">
@@ -6842,7 +6844,7 @@
       </c>
       <c r="R104" s="4">
         <f t="shared" si="10"/>
-        <v>1.0000000000019327E-2</v>
+        <v>0</v>
       </c>
       <c r="S104" s="4">
         <f t="shared" si="11"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4B6D2-1063-445E-BA59-4EB98BD9F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F334099-47DF-4A84-974F-DD8DADCE9D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="22740" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3931,14 +3931,14 @@
         <v>1190.5</v>
       </c>
       <c r="M54" s="2">
-        <v>1170.9100000000001</v>
+        <v>1170.9000000000001</v>
       </c>
       <c r="N54" s="2">
         <v>2361.4</v>
       </c>
       <c r="O54" s="4">
         <f t="shared" si="2"/>
-        <v>9.9999999997635314E-3</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="4">
         <f t="shared" si="3"/>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="R54" s="4">
         <f t="shared" si="4"/>
-        <v>-9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="S54" s="4">
         <f t="shared" si="5"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1908.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1908.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F334099-47DF-4A84-974F-DD8DADCE9D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D59BF14-2B0E-4BAA-8407-829E0267A006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -814,8 +814,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
